--- a/autoConditions/train2Block2.xlsx
+++ b/autoConditions/train2Block2.xlsx
@@ -449,108 +449,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/27_pakapa.wav</t>
+          <t>trainaudio/12_pokika.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/09_tipata.wav</t>
+          <t>trainaudio/20_tatito.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/20_tatito.wav</t>
+          <t>trainaudio/02_pitito.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/19_papipi.wav</t>
+          <t>trainaudio/21_papika.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainaudio/15_kopota.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/17_kotako.wav</t>
+          <t>trainaudio/24_takopa.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainaudio/12_pokika.wav</t>
+          <t>trainaudio/01_kitipi.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/01_pitito.wav</t>
+          <t>trainaudio/06_titoka.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainaudio/27_pakapa.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train2Block2.xlsx
+++ b/autoConditions/train2Block2.xlsx
@@ -449,108 +449,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/12_pokika.wav</t>
+          <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/20_tatito.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/02_pitito.wav</t>
+          <t>trainingaudio/09_tipata2.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/15_kopota.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/24_takopa.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainaudio/01_kitipi.wav</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainaudio/06_titoka.wav</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainaudio/27_pakapa.wav</t>
+          <t>trainingaudio/17_kotako2.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train2Block2.xlsx
+++ b/autoConditions/train2Block2.xlsx
@@ -449,24 +449,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/25_tapapi1.wav</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/08_tipako2.wav</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
     </row>
@@ -485,72 +485,72 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi1.wav</t>
+          <t>trainingaudio/17_kotako2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita3.wav</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti1.wav</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/10_backpack.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko1.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>trainingaudio/24_takopa1.wav</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>trainingaudio/17_kotako2.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
     </row>
